--- a/input/design/AAAExample.xlsx
+++ b/input/design/AAAExample.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hj\sg-util\input\design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="32268" yWindow="2892" windowWidth="21600" windowHeight="11436" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#说明" sheetId="3" r:id="rId1"/>
@@ -25,518 +20,436 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Souldraw!$A$1:$H$18</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="188">
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number#unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number#required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#注释列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwadd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number#optional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字选填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小数必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number#required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串选填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string#optional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级3</t>
-  </si>
-  <si>
-    <t>等级5</t>
-  </si>
-  <si>
-    <t>等级6</t>
-  </si>
-  <si>
-    <t>等级7</t>
-  </si>
-  <si>
-    <t>等级8</t>
-  </si>
-  <si>
-    <t>等级9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="173">
+  <si>
+    <t>文件工作簿需使用英文名</t>
+  </si>
+  <si>
+    <t>sheet工作表需使用英文名</t>
+  </si>
+  <si>
+    <t>一张表中只允许一个以默认方式（“Sheet+数字”）命名的工作表存在</t>
+  </si>
+  <si>
+    <t>脚本导出的文件名格式为：表名_sheet名</t>
+  </si>
+  <si>
+    <t>比如：表名为role，sheet名为：level， 导出的文件名为：role_level</t>
   </si>
   <si>
     <t>#号的使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sheet页签前加#号，脚本不会导出此页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名前加#号， 脚本不会导处此列</t>
   </si>
   <si>
     <t>表的前三行作为表头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列名前加#号， 脚本不会导处此列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚本导出的文件名格式为：表名_sheet名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比如：表名为role，sheet名为：level， 导出的文件名为：role_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string#index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13资</t>
-  </si>
-  <si>
-    <t>13资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14资</t>
-  </si>
-  <si>
-    <t>15资</t>
-  </si>
-  <si>
-    <t>资质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string#index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子活动id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>awards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[number]#required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2</t>
-  </si>
-  <si>
-    <t>2|3</t>
-  </si>
-  <si>
-    <t>1|3|5</t>
-  </si>
-  <si>
-    <t>2|4|6|</t>
-  </si>
-  <si>
-    <t>1|4</t>
-  </si>
-  <si>
-    <t>2|5</t>
-  </si>
-  <si>
-    <t>1|5</t>
-  </si>
-  <si>
-    <t>2|6</t>
-  </si>
-  <si>
-    <t>1|6</t>
-  </si>
-  <si>
-    <t>2|7</t>
-  </si>
-  <si>
-    <t>1|7</t>
-  </si>
-  <si>
-    <t>2|8</t>
-  </si>
-  <si>
-    <t>1|8</t>
-  </si>
-  <si>
-    <t>2|9</t>
-  </si>
-  <si>
-    <t>1|9</t>
-  </si>
-  <si>
-    <t>字符数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>props</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[string]#required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa|bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb|cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb|cc|dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa|bb|ff|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐标x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐标y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos.x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos.y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐标z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos.z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[number]#required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50|51|52</t>
-  </si>
-  <si>
-    <t>51|52|53</t>
-  </si>
-  <si>
-    <t>50|51|53</t>
-  </si>
-  <si>
-    <t>51|52|54|55</t>
-  </si>
-  <si>
-    <t>50|51|54|</t>
-  </si>
-  <si>
-    <t>51|52|55</t>
-  </si>
-  <si>
-    <t>50|51|55</t>
-  </si>
-  <si>
-    <t>51|52|56</t>
-  </si>
-  <si>
-    <t>50|51|56</t>
   </si>
   <si>
     <t>第一行策划辅助列名，也就是侠客从前配置的表头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第二行导出的列名，程序用，使用英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊配置方式1：英文名中间使用点分隔符, 如pos.x, pos.y, 导出结果为pos是一个对象，此对象下有x与y两个属性</t>
+  </si>
+  <si>
+    <t>特殊配置方式2：上述配置方式，两端增加“[]”,比如[pos.x], [pos.y], 将导出对象数组，数组分隔符使用竖划线。具体配置方式请参考Sheet1的零件攻击、零件防御</t>
   </si>
   <si>
     <t>第三行分为两个部分：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第三行#号前：代表字段类型，目前有两种基本类型：string和number，
 和对应的两种数组类型：[string]、[number], 数组分隔符竖划线 |</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index: 用于导表时，将相同字段数组归类在一起导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheet工作表需使用英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件工作簿需使用英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一张表中只允许一个以默认方式（“Sheet+数字”）命名的工作表存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[number]#required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[element.atk]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[element.def]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11|22|33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4|5|6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44|55|66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|4</t>
-  </si>
-  <si>
-    <t>4|5|7</t>
-  </si>
-  <si>
-    <t>1|2|5</t>
-  </si>
-  <si>
-    <t>4|5|8</t>
-  </si>
-  <si>
-    <t>1|2|6</t>
-  </si>
-  <si>
-    <t>4|5|9</t>
-  </si>
-  <si>
-    <t>1|2|7</t>
-  </si>
-  <si>
-    <t>11|22|34</t>
-  </si>
-  <si>
-    <t>44|55|67</t>
-  </si>
-  <si>
-    <t>11|22|35</t>
-  </si>
-  <si>
-    <t>44|55|68</t>
-  </si>
-  <si>
-    <t>11|22|36</t>
-  </si>
-  <si>
-    <t>44|55|69</t>
-  </si>
-  <si>
-    <t>11|22|37</t>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊配置方式1：英文名中间使用点分隔符, 如pos.x, pos.y, 导出结果为pos是一个对象，此对象下有x与y两个属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊配置方式2：上述配置方式，两端增加“[]”,比如[pos.x], [pos.y], 将导出对象数组，数组分隔符使用竖划线。具体配置方式请参考Sheet1的零件攻击、零件防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体配置方式请参考此文件的其它工作表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第三行#号后：代表字段属性，目前支持四种类型：
 unique(索引且唯一)， required（必填）， optional（选填，空导出缺省值），index（索引可不唯一），discard（选填，未填则不导出）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index: 用于导表时，将相同字段数组归类在一起导出</t>
+  </si>
+  <si>
+    <t>具体配置方式请参考此文件的其它工作表</t>
   </si>
   <si>
     <t>表格命名法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xx系统_子系统顺位编号_子系统名称#表格名程序用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>number#unique</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>零件攻击</t>
+  </si>
+  <si>
+    <t>零件防御</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>自定义函数</t>
   </si>
   <si>
     <t>依赖表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖表2</t>
+  </si>
+  <si>
+    <t>依赖检查</t>
+  </si>
+  <si>
+    <t>[element.atk]</t>
+  </si>
+  <si>
+    <t>[element.def]</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>number#required</t>
+  </si>
+  <si>
+    <t>[number]#required</t>
+  </si>
+  <si>
+    <t>auto#discard</t>
+  </si>
+  <si>
+    <t>func#tstFunc</t>
+  </si>
+  <si>
+    <t>depend#AAAExample_Profile.age</t>
+  </si>
+  <si>
+    <t>depend#AAAExample_Profile.height</t>
+  </si>
+  <si>
+    <t>dependCk#AAAExample_Profile</t>
+  </si>
+  <si>
+    <t>1|2|3</t>
+  </si>
+  <si>
+    <t>11|22|33</t>
   </si>
   <si>
     <t>表演_攻击生效前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时机_大回合开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depend#BattleConstCfg#CfgConst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>func#tstFunc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云</t>
+  </si>
+  <si>
+    <t>4|5|6</t>
+  </si>
+  <si>
+    <t>44|55|66</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>1|2|4</t>
+  </si>
+  <si>
+    <t>11|22|34</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>4|5|7</t>
+  </si>
+  <si>
+    <t>44|55|67</t>
+  </si>
+  <si>
+    <t>1|2|5</t>
+  </si>
+  <si>
+    <t>11|22|35</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>4|5|8</t>
+  </si>
+  <si>
+    <t>44|55|68</t>
+  </si>
+  <si>
+    <t>1|2|6</t>
+  </si>
+  <si>
+    <t>11|22|36</t>
+  </si>
+  <si>
+    <t>刘备不存在</t>
+  </si>
+  <si>
+    <t>4|5|9</t>
+  </si>
+  <si>
+    <t>44|55|69</t>
+  </si>
+  <si>
+    <t>马超不存在</t>
+  </si>
+  <si>
+    <t>1|2|7</t>
+  </si>
+  <si>
+    <t>11|22|37</t>
+  </si>
+  <si>
+    <t>数字选填</t>
+  </si>
+  <si>
+    <t>小数必填</t>
+  </si>
+  <si>
+    <t>字符串选填</t>
+  </si>
+  <si>
+    <t>#注释列</t>
+  </si>
+  <si>
+    <t>坐标x</t>
+  </si>
+  <si>
+    <t>坐标y</t>
+  </si>
+  <si>
+    <t>坐标z</t>
+  </si>
+  <si>
+    <t>pwadd</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>pos.x</t>
+  </si>
+  <si>
+    <t>pos.y</t>
+  </si>
+  <si>
+    <t>pos.z</t>
+  </si>
+  <si>
+    <t>number#optional</t>
+  </si>
+  <si>
+    <t>string#optional</t>
+  </si>
+  <si>
+    <t>等级1</t>
+  </si>
+  <si>
+    <t>50|51|52</t>
+  </si>
+  <si>
+    <t>等级2</t>
+  </si>
+  <si>
+    <t>51|52|53</t>
+  </si>
+  <si>
+    <t>等级3</t>
+  </si>
+  <si>
+    <t>50|51|53</t>
+  </si>
+  <si>
+    <t>51|52|54|55</t>
+  </si>
+  <si>
+    <t>等级5</t>
+  </si>
+  <si>
+    <t>50|51|54|</t>
+  </si>
+  <si>
+    <t>等级6</t>
+  </si>
+  <si>
+    <t>51|52|55</t>
+  </si>
+  <si>
+    <t>等级7</t>
+  </si>
+  <si>
+    <t>50|51|55</t>
+  </si>
+  <si>
+    <t>等级8</t>
+  </si>
+  <si>
+    <t>51|52|56</t>
+  </si>
+  <si>
+    <t>等级9</t>
+  </si>
+  <si>
+    <t>50|51|56</t>
+  </si>
+  <si>
+    <t>活动id</t>
+  </si>
+  <si>
+    <t>子活动id</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>资质</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>字符数组</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>sub_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>awards</t>
+  </si>
+  <si>
+    <t>props</t>
+  </si>
+  <si>
+    <t>string#index</t>
+  </si>
+  <si>
+    <t>[string]#required</t>
+  </si>
+  <si>
+    <t>13资</t>
+  </si>
+  <si>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>aa|bb</t>
+  </si>
+  <si>
+    <t>14资</t>
+  </si>
+  <si>
+    <t>2|3</t>
+  </si>
+  <si>
+    <t>bb|cc</t>
+  </si>
+  <si>
+    <t>15资</t>
+  </si>
+  <si>
+    <t>1|3|5</t>
+  </si>
+  <si>
+    <t>2|4|6|</t>
+  </si>
+  <si>
+    <t>1|4</t>
+  </si>
+  <si>
+    <t>2|5</t>
+  </si>
+  <si>
+    <t>1|5</t>
+  </si>
+  <si>
+    <t>2|6</t>
+  </si>
+  <si>
+    <t>1|6</t>
+  </si>
+  <si>
+    <t>2|7</t>
+  </si>
+  <si>
+    <t>1|7</t>
+  </si>
+  <si>
+    <t>aa|bb|ff|</t>
+  </si>
+  <si>
+    <t>2|8</t>
+  </si>
+  <si>
+    <t>bb|cc|dd</t>
+  </si>
+  <si>
+    <t>1|8</t>
+  </si>
+  <si>
+    <t>2|9</t>
+  </si>
+  <si>
+    <t>等级10</t>
+  </si>
+  <si>
+    <t>1|9</t>
   </si>
   <si>
     <t>星级</t>
@@ -579,95 +492,21 @@
   </si>
   <si>
     <t>#10300004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄盖注释测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄盖5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试不存在报错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>身高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string#unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖表2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depend#AAAExample_Profile.age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depend#AAAExample_Profile.height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马超不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dependCk#AAAExample_Profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto#discard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
@@ -676,7 +515,7 @@
     <t>编号</t>
   </si>
   <si>
-    <t>number#required</t>
+    <t>kv</t>
   </si>
   <si>
     <t>元宝</t>
@@ -707,32 +546,23 @@
   </si>
   <si>
     <t>友情点</t>
-  </si>
-  <si>
-    <t>kv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -740,23 +570,186 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -766,6 +759,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -778,24 +777,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -803,44 +970,334 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -849,7 +1306,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="8" tint="0.599963377788629"/>
         </patternFill>
       </fill>
     </dxf>
@@ -859,15 +1316,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -883,19 +1337,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35126808-AD48-4D28-A8DE-1245E02F8AB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -903,7 +1351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="571500" y="7477125"/>
-          <a:ext cx="3076190" cy="1580952"/>
+          <a:ext cx="3073400" cy="1580515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -958,7 +1406,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -993,7 +1441,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1167,149 +1615,143 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:C34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2166666666667" customWidth="1"/>
     <col min="3" max="3" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" ht="23.25" spans="2:2">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="23.25" spans="2:2">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="23.25" spans="2:2">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C15" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="2:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="3:3">
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="3:3">
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="3:3">
+      <c r="C19" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" ht="42.75" spans="3:3">
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>126</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -1317,36 +1759,36 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1354,7 +1796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1362,7 +1804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1370,7 +1812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1378,7 +1820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1386,7 +1828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1394,7 +1836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1402,7 +1844,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1410,7 +1852,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1418,7 +1860,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1427,126 +1869,115 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.8833333333333" customWidth="1"/>
+    <col min="9" max="9" width="18.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1554,31 +1985,28 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1586,31 +2014,28 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1618,31 +2043,28 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>13</v>
       </c>
@@ -1650,28 +2072,25 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
-      </c>
-      <c r="J7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1679,31 +2098,28 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>15</v>
       </c>
@@ -1711,31 +2127,28 @@
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>156</v>
-      </c>
-      <c r="J9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>16</v>
       </c>
@@ -1743,22 +2156,19 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>17</v>
       </c>
@@ -1766,25 +2176,22 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>18</v>
       </c>
@@ -1792,67 +2199,64 @@
         <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E37" sqref="A35:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1860,7 +2264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1868,7 +2272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1876,7 +2280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>13</v>
       </c>
@@ -1884,7 +2288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1892,7 +2296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>15</v>
       </c>
@@ -1900,7 +2304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -1908,7 +2312,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>17</v>
       </c>
@@ -1916,7 +2320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>18</v>
       </c>
@@ -1925,116 +2329,114 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="A22:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="7" width="16.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2048,7 +2450,7 @@
         <v>0.1</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -2060,10 +2462,10 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2074,7 +2476,7 @@
         <v>0.2</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F5">
         <v>120</v>
@@ -2086,10 +2488,10 @@
         <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2100,7 +2502,7 @@
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F6">
         <v>140</v>
@@ -2112,10 +2514,10 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2135,10 +2537,10 @@
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2152,7 +2554,7 @@
         <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="F8">
         <v>180</v>
@@ -2164,10 +2566,10 @@
         <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2178,7 +2580,7 @@
         <v>0.6</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="F9">
         <v>200</v>
@@ -2190,10 +2592,10 @@
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2204,7 +2606,7 @@
         <v>0.7</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="F10">
         <v>220</v>
@@ -2216,10 +2618,10 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2230,7 +2632,7 @@
         <v>0.8</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>240</v>
@@ -2242,10 +2644,10 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2259,7 +2661,7 @@
         <v>0.9</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="F12">
         <v>260</v>
@@ -2271,133 +2673,130 @@
         <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E27" sqref="A27:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="7" width="16.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
       <c r="J3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>202105</v>
       </c>
@@ -2414,22 +2813,22 @@
         <v>0.1</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="G4">
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>202105</v>
       </c>
@@ -2443,22 +2842,22 @@
         <v>0.2</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="G5">
         <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>202105</v>
       </c>
@@ -2472,22 +2871,22 @@
         <v>0.3</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="G6">
         <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>202105</v>
       </c>
@@ -2504,16 +2903,16 @@
         <v>160</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>202105</v>
       </c>
@@ -2530,22 +2929,22 @@
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="G8">
         <v>180</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>202105</v>
       </c>
@@ -2562,22 +2961,22 @@
         <v>0.1</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>202105</v>
       </c>
@@ -2591,22 +2990,22 @@
         <v>0.2</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="G10">
         <v>120</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>202105</v>
       </c>
@@ -2620,22 +3019,22 @@
         <v>0.3</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="G11">
         <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>202105</v>
       </c>
@@ -2652,16 +3051,16 @@
         <v>160</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>202105</v>
       </c>
@@ -2678,22 +3077,22 @@
         <v>0.5</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="G13">
         <v>180</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>202106</v>
       </c>
@@ -2707,22 +3106,22 @@
         <v>0.6</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="G14">
         <v>200</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>202106</v>
       </c>
@@ -2736,22 +3135,22 @@
         <v>0.7</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="G15">
         <v>220</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>202106</v>
       </c>
@@ -2765,22 +3164,22 @@
         <v>0.8</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G16">
         <v>240</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>202106</v>
       </c>
@@ -2797,22 +3196,22 @@
         <v>0.9</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="G17">
         <v>260</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>202106</v>
       </c>
@@ -2829,31 +3228,33 @@
         <v>0.1</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H18"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:H18">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -2861,47 +3262,47 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.775" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>10300001</v>
       </c>
@@ -2909,10 +3310,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>10300001</v>
       </c>
@@ -2920,10 +3321,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>10300001</v>
       </c>
@@ -2931,10 +3332,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>10300002</v>
       </c>
@@ -2942,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>10300003</v>
       </c>
@@ -2953,21 +3354,21 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>10300005</v>
       </c>
@@ -2975,18 +3376,18 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2994,49 +3395,49 @@
       <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
         <v>157</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>163</v>
-      </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -3045,9 +3446,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>32</v>
@@ -3056,9 +3457,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>33</v>
@@ -3068,137 +3469,138 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>176</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>177</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>178</v>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>179</v>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="#">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>